--- a/sample/Signals_diff.xlsx
+++ b/sample/Signals_diff.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-16200" yWindow="-225" windowWidth="16410" windowHeight="13680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,56 +19,22 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <family val="3"/>
-      <sz val="6"/>
-      <scheme val="minor"/>
+      <name val="Meiryo UI"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBDBDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6ACD9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -100,90 +67,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -194,39 +78,13 @@
     <border>
       <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
       <top/>
       <bottom/>
     </border>
     <border>
       <left style="dotted"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="dotted"/>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
     </border>
     <border>
@@ -237,6 +95,12 @@
     </border>
     <border>
       <left style="dotted"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin"/>
       <bottom/>
@@ -280,100 +144,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -738,1266 +588,1296 @@
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
-  <cols>
-    <col width="22.875" customWidth="1" min="20" max="20"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="U1" s="58" t="n"/>
+      <c r="A1" s="45" t="n"/>
+      <c r="B1" s="45" t="n"/>
+      <c r="C1" s="45" t="n"/>
+      <c r="D1" s="45" t="n"/>
+      <c r="E1" s="45" t="n"/>
+      <c r="F1" s="45" t="n"/>
+      <c r="G1" s="45" t="n"/>
+      <c r="H1" s="45" t="n"/>
+      <c r="I1" s="45" t="n"/>
+      <c r="J1" s="45" t="n"/>
+      <c r="K1" s="45" t="n"/>
+      <c r="L1" s="45" t="n"/>
+      <c r="M1" s="45" t="n"/>
+      <c r="N1" s="45" t="n"/>
+      <c r="O1" s="45" t="n"/>
+      <c r="P1" s="45" t="n"/>
+      <c r="Q1" s="45" t="n"/>
+      <c r="R1" s="45" t="n"/>
+      <c r="S1" s="45" t="n"/>
+      <c r="T1" s="45" t="n"/>
+      <c r="U1" s="46" t="n"/>
     </row>
     <row r="2">
-      <c r="B2" s="44" t="inlineStr">
+      <c r="A2" s="45" t="n"/>
+      <c r="B2" s="47" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C2" s="44" t="inlineStr">
+      <c r="C2" s="47" t="inlineStr">
         <is>
           <t>1: Name</t>
         </is>
       </c>
-      <c r="D2" s="45" t="inlineStr">
+      <c r="D2" s="48" t="inlineStr">
         <is>
           <t>2: name</t>
         </is>
       </c>
-      <c r="E2" s="45" t="inlineStr">
+      <c r="E2" s="48" t="inlineStr">
         <is>
           <t>judgement: Name</t>
         </is>
       </c>
-      <c r="F2" s="44" t="inlineStr">
+      <c r="F2" s="47" t="inlineStr">
         <is>
           <t>1: description</t>
         </is>
       </c>
-      <c r="G2" s="45" t="inlineStr">
+      <c r="G2" s="48" t="inlineStr">
         <is>
           <t>2: description</t>
         </is>
       </c>
-      <c r="H2" s="45" t="inlineStr">
+      <c r="H2" s="48" t="inlineStr">
         <is>
           <t>judgement: description</t>
         </is>
       </c>
-      <c r="I2" s="44" t="inlineStr">
+      <c r="I2" s="47" t="inlineStr">
         <is>
           <t>1: value</t>
         </is>
       </c>
-      <c r="J2" s="45" t="inlineStr">
+      <c r="J2" s="48" t="inlineStr">
         <is>
           <t>2: value</t>
         </is>
       </c>
-      <c r="K2" s="45" t="inlineStr">
+      <c r="K2" s="48" t="inlineStr">
         <is>
           <t>judgement: value</t>
         </is>
       </c>
-      <c r="L2" s="44" t="inlineStr">
+      <c r="L2" s="47" t="inlineStr">
         <is>
           <t>1: min</t>
         </is>
       </c>
-      <c r="M2" s="45" t="inlineStr">
+      <c r="M2" s="48" t="inlineStr">
         <is>
           <t>2: 最小値</t>
         </is>
       </c>
-      <c r="N2" s="45" t="inlineStr">
+      <c r="N2" s="48" t="inlineStr">
         <is>
           <t>judgement: min</t>
         </is>
       </c>
-      <c r="O2" s="44" t="inlineStr">
+      <c r="O2" s="47" t="inlineStr">
         <is>
           <t>1: max</t>
         </is>
       </c>
-      <c r="P2" s="45" t="inlineStr">
+      <c r="P2" s="48" t="inlineStr">
         <is>
           <t>2: max</t>
         </is>
       </c>
-      <c r="Q2" s="45" t="inlineStr">
+      <c r="Q2" s="48" t="inlineStr">
         <is>
           <t>judgement: max</t>
         </is>
       </c>
-      <c r="R2" s="44" t="inlineStr">
+      <c r="R2" s="47" t="inlineStr">
         <is>
           <t>1: addres</t>
         </is>
       </c>
-      <c r="S2" s="45" t="inlineStr">
+      <c r="S2" s="48" t="inlineStr">
         <is>
           <t>2: Undifined</t>
         </is>
       </c>
-      <c r="T2" s="45" t="inlineStr">
+      <c r="T2" s="48" t="inlineStr">
         <is>
           <t>judgement: addres</t>
         </is>
       </c>
-      <c r="U2" s="82" t="n"/>
+      <c r="U2" s="68" t="n"/>
     </row>
     <row r="3">
-      <c r="B3" s="46" t="inlineStr">
+      <c r="A3" s="45" t="n"/>
+      <c r="B3" s="50" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C3" s="46" t="inlineStr">
+      <c r="C3" s="50" t="inlineStr">
         <is>
           <t>Alice</t>
         </is>
       </c>
-      <c r="D3" s="47" t="inlineStr">
+      <c r="D3" s="51" t="inlineStr">
         <is>
           <t>Alice</t>
         </is>
       </c>
-      <c r="E3" s="48" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="F3" s="46" t="inlineStr">
+      <c r="E3" s="52" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="F3" s="50" t="inlineStr">
         <is>
           <t>Loves hiking</t>
         </is>
       </c>
-      <c r="G3" s="47" t="inlineStr">
+      <c r="G3" s="51" t="inlineStr">
         <is>
           <t>Loves hiking</t>
         </is>
       </c>
-      <c r="H3" s="48" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="I3" s="46" t="inlineStr">
+      <c r="H3" s="52" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="I3" s="50" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="J3" s="47" t="inlineStr">
+      <c r="J3" s="51" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="K3" s="48" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="L3" s="46" t="inlineStr">
+      <c r="K3" s="52" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="L3" s="50" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="M3" s="47" t="inlineStr">
+      <c r="M3" s="51" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="N3" s="48" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="O3" s="46" t="inlineStr">
+      <c r="N3" s="52" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="O3" s="50" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="P3" s="47" t="inlineStr">
+      <c r="P3" s="51" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="Q3" s="48" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="R3" s="46" t="inlineStr">
+      <c r="Q3" s="52" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="R3" s="50" t="inlineStr">
         <is>
           <t>JPN</t>
         </is>
       </c>
-      <c r="S3" s="47" t="inlineStr"/>
-      <c r="T3" s="49" t="inlineStr">
+      <c r="S3" s="51" t="inlineStr"/>
+      <c r="T3" s="53" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U3" s="82" t="n"/>
+      <c r="U3" s="68" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="51" t="inlineStr">
+      <c r="A4" s="45" t="n"/>
+      <c r="B4" s="54" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C4" s="51" t="inlineStr">
+      <c r="C4" s="54" t="inlineStr">
         <is>
           <t>Bob</t>
         </is>
       </c>
-      <c r="D4" s="52" t="inlineStr">
+      <c r="D4" s="55" t="inlineStr">
         <is>
           <t>Bob</t>
         </is>
       </c>
-      <c r="E4" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="F4" s="51" t="inlineStr">
+      <c r="E4" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="F4" s="54" t="inlineStr">
         <is>
           <t>Enjoys cooking</t>
         </is>
       </c>
-      <c r="G4" s="52" t="inlineStr">
+      <c r="G4" s="55" t="inlineStr">
         <is>
           <t>Enjoys cooking</t>
         </is>
       </c>
-      <c r="H4" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="I4" s="51" t="inlineStr">
+      <c r="H4" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="I4" s="54" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="J4" s="52" t="inlineStr">
+      <c r="J4" s="55" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="K4" s="54" t="inlineStr">
+      <c r="K4" s="57" t="inlineStr">
         <is>
           <t>CHANGE</t>
         </is>
       </c>
-      <c r="L4" s="51" t="inlineStr">
+      <c r="L4" s="54" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="M4" s="52" t="inlineStr">
+      <c r="M4" s="55" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="N4" s="54" t="inlineStr">
+      <c r="N4" s="57" t="inlineStr">
         <is>
           <t>CHANGE</t>
         </is>
       </c>
-      <c r="O4" s="51" t="inlineStr">
+      <c r="O4" s="54" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P4" s="52" t="inlineStr">
+      <c r="P4" s="55" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="Q4" s="54" t="inlineStr">
+      <c r="Q4" s="57" t="inlineStr">
         <is>
           <t>CHANGE</t>
         </is>
       </c>
-      <c r="R4" s="51" t="inlineStr">
+      <c r="R4" s="54" t="inlineStr">
         <is>
           <t>JPN</t>
         </is>
       </c>
-      <c r="S4" s="52" t="inlineStr"/>
-      <c r="T4" s="55" t="inlineStr">
+      <c r="S4" s="55" t="inlineStr"/>
+      <c r="T4" s="58" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U4" s="82" t="n"/>
+      <c r="U4" s="68" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="51" t="inlineStr">
+      <c r="A5" s="45" t="n"/>
+      <c r="B5" s="54" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C5" s="51" t="inlineStr">
+      <c r="C5" s="54" t="inlineStr">
         <is>
           <t>Charlie</t>
         </is>
       </c>
-      <c r="D5" s="52" t="inlineStr">
+      <c r="D5" s="55" t="inlineStr">
         <is>
           <t>Charlie</t>
         </is>
       </c>
-      <c r="E5" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="F5" s="51" t="inlineStr">
+      <c r="E5" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="F5" s="54" t="inlineStr">
         <is>
           <t>Avid reader</t>
         </is>
       </c>
-      <c r="G5" s="52" t="inlineStr">
+      <c r="G5" s="55" t="inlineStr">
         <is>
           <t>Avid reader</t>
         </is>
       </c>
-      <c r="H5" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="I5" s="51" t="inlineStr">
+      <c r="H5" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="I5" s="54" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="J5" s="52" t="inlineStr">
+      <c r="J5" s="55" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="K5" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="L5" s="51" t="inlineStr">
+      <c r="K5" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="L5" s="54" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M5" s="52" t="inlineStr">
+      <c r="M5" s="55" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N5" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="O5" s="51" t="inlineStr">
+      <c r="N5" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="O5" s="54" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="P5" s="52" t="inlineStr">
+      <c r="P5" s="55" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="Q5" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="R5" s="51" t="inlineStr">
+      <c r="Q5" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="R5" s="54" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="S5" s="52" t="inlineStr"/>
-      <c r="T5" s="55" t="inlineStr">
+      <c r="S5" s="55" t="inlineStr"/>
+      <c r="T5" s="58" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U5" s="82" t="n"/>
+      <c r="U5" s="68" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="51" t="inlineStr">
+      <c r="A6" s="45" t="n"/>
+      <c r="B6" s="54" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C6" s="51" t="inlineStr">
+      <c r="C6" s="54" t="inlineStr">
         <is>
           <t>David</t>
         </is>
       </c>
-      <c r="D6" s="52" t="inlineStr">
+      <c r="D6" s="55" t="inlineStr">
         <is>
           <t>David</t>
         </is>
       </c>
-      <c r="E6" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="F6" s="51" t="inlineStr">
+      <c r="E6" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="F6" s="54" t="inlineStr">
         <is>
           <t>Movie buff</t>
         </is>
       </c>
-      <c r="G6" s="52" t="inlineStr">
+      <c r="G6" s="55" t="inlineStr">
         <is>
           <t>えっ</t>
         </is>
       </c>
-      <c r="H6" s="54" t="inlineStr">
+      <c r="H6" s="57" t="inlineStr">
         <is>
           <t>CHANGE</t>
         </is>
       </c>
-      <c r="I6" s="51" t="inlineStr">
+      <c r="I6" s="54" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="J6" s="52" t="inlineStr">
+      <c r="J6" s="55" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="K6" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="L6" s="51" t="inlineStr">
+      <c r="K6" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="L6" s="54" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="M6" s="52" t="inlineStr">
+      <c r="M6" s="55" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="N6" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="O6" s="51" t="inlineStr">
+      <c r="N6" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="O6" s="54" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P6" s="52" t="inlineStr">
+      <c r="P6" s="55" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="Q6" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="R6" s="51" t="inlineStr">
+      <c r="Q6" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="R6" s="54" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="S6" s="52" t="inlineStr"/>
-      <c r="T6" s="55" t="inlineStr">
+      <c r="S6" s="55" t="inlineStr"/>
+      <c r="T6" s="58" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U6" s="82" t="n"/>
+      <c r="U6" s="68" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="51" t="inlineStr">
+      <c r="A7" s="45" t="n"/>
+      <c r="B7" s="54" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C7" s="51" t="inlineStr">
+      <c r="C7" s="54" t="inlineStr">
         <is>
           <t>Emily</t>
         </is>
       </c>
-      <c r="D7" s="52" t="inlineStr">
+      <c r="D7" s="55" t="inlineStr">
         <is>
           <t>Emily</t>
         </is>
       </c>
-      <c r="E7" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="F7" s="51" t="inlineStr">
+      <c r="E7" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="F7" s="54" t="inlineStr">
         <is>
           <t>Music lover</t>
         </is>
       </c>
-      <c r="G7" s="52" t="inlineStr">
+      <c r="G7" s="55" t="inlineStr">
         <is>
           <t>Music lover</t>
         </is>
       </c>
-      <c r="H7" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="I7" s="51" t="inlineStr">
+      <c r="H7" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="I7" s="54" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="J7" s="52" t="inlineStr">
+      <c r="J7" s="55" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="K7" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="L7" s="51" t="inlineStr">
+      <c r="K7" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="L7" s="54" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M7" s="52" t="inlineStr">
+      <c r="M7" s="55" t="inlineStr">
         <is>
           <t>w</t>
         </is>
       </c>
-      <c r="N7" s="54" t="inlineStr">
+      <c r="N7" s="57" t="inlineStr">
         <is>
           <t>CHANGE</t>
         </is>
       </c>
-      <c r="O7" s="51" t="inlineStr">
+      <c r="O7" s="54" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P7" s="52" t="inlineStr">
+      <c r="P7" s="55" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Q7" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="R7" s="51" t="inlineStr">
+      <c r="Q7" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="R7" s="54" t="inlineStr">
         <is>
           <t>CHN</t>
         </is>
       </c>
-      <c r="S7" s="52" t="inlineStr"/>
-      <c r="T7" s="55" t="inlineStr">
+      <c r="S7" s="55" t="inlineStr"/>
+      <c r="T7" s="58" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U7" s="82" t="n"/>
+      <c r="U7" s="68" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="51" t="inlineStr">
+      <c r="A8" s="45" t="n"/>
+      <c r="B8" s="54" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C8" s="51" t="inlineStr">
+      <c r="C8" s="54" t="inlineStr">
         <is>
           <t>Frank</t>
         </is>
       </c>
-      <c r="D8" s="52" t="inlineStr">
+      <c r="D8" s="55" t="inlineStr">
         <is>
           <t>Frank</t>
         </is>
       </c>
-      <c r="E8" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="F8" s="51" t="inlineStr">
+      <c r="E8" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="F8" s="54" t="inlineStr">
         <is>
           <t>Tech enthusiast</t>
         </is>
       </c>
-      <c r="G8" s="52" t="inlineStr">
+      <c r="G8" s="55" t="inlineStr">
         <is>
           <t>Tech enthusiast</t>
         </is>
       </c>
-      <c r="H8" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="I8" s="51" t="inlineStr">
+      <c r="H8" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="I8" s="54" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="J8" s="52" t="inlineStr">
+      <c r="J8" s="55" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="K8" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="L8" s="51" t="inlineStr">
+      <c r="K8" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="L8" s="54" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="M8" s="52" t="inlineStr">
+      <c r="M8" s="55" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="N8" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="O8" s="51" t="inlineStr">
+      <c r="N8" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="O8" s="54" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="P8" s="52" t="inlineStr">
+      <c r="P8" s="55" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="Q8" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="R8" s="51" t="inlineStr">
+      <c r="Q8" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="R8" s="54" t="inlineStr">
         <is>
           <t>CHN</t>
         </is>
       </c>
-      <c r="S8" s="52" t="inlineStr"/>
-      <c r="T8" s="55" t="inlineStr">
+      <c r="S8" s="55" t="inlineStr"/>
+      <c r="T8" s="58" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U8" s="82" t="n"/>
+      <c r="U8" s="68" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="51" t="inlineStr">
+      <c r="A9" s="45" t="n"/>
+      <c r="B9" s="54" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C9" s="51" t="inlineStr">
+      <c r="C9" s="54" t="inlineStr">
         <is>
           <t>Grace</t>
         </is>
       </c>
-      <c r="D9" s="52" t="inlineStr">
+      <c r="D9" s="55" t="inlineStr">
         <is>
           <t>Grace</t>
         </is>
       </c>
-      <c r="E9" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="F9" s="51" t="inlineStr">
+      <c r="E9" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="F9" s="54" t="inlineStr">
         <is>
           <t>Nature admirer</t>
         </is>
       </c>
-      <c r="G9" s="52" t="inlineStr">
+      <c r="G9" s="55" t="inlineStr">
         <is>
           <t>Nature admirer</t>
         </is>
       </c>
-      <c r="H9" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="I9" s="51" t="inlineStr">
+      <c r="H9" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="I9" s="54" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="J9" s="52" t="inlineStr">
+      <c r="J9" s="55" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="K9" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="L9" s="51" t="inlineStr">
+      <c r="K9" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="L9" s="54" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="M9" s="52" t="inlineStr">
+      <c r="M9" s="55" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="N9" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="O9" s="51" t="inlineStr">
+      <c r="N9" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="O9" s="54" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="P9" s="52" t="inlineStr">
+      <c r="P9" s="55" t="inlineStr">
         <is>
           <t>50</t>
         </is>
       </c>
-      <c r="Q9" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="R9" s="51" t="inlineStr">
+      <c r="Q9" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="R9" s="54" t="inlineStr">
         <is>
           <t>JPN</t>
         </is>
       </c>
-      <c r="S9" s="52" t="inlineStr"/>
-      <c r="T9" s="55" t="inlineStr">
+      <c r="S9" s="55" t="inlineStr"/>
+      <c r="T9" s="58" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U9" s="82" t="n"/>
+      <c r="U9" s="68" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="51" t="inlineStr">
+      <c r="A10" s="45" t="n"/>
+      <c r="B10" s="54" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C10" s="51" t="inlineStr">
+      <c r="C10" s="54" t="inlineStr">
         <is>
           <t>Henry</t>
         </is>
       </c>
-      <c r="D10" s="52" t="inlineStr">
+      <c r="D10" s="55" t="inlineStr">
         <is>
           <t>Henry</t>
         </is>
       </c>
-      <c r="E10" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="F10" s="51" t="inlineStr">
+      <c r="E10" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="F10" s="54" t="inlineStr">
         <is>
           <t>Sports fanatic</t>
         </is>
       </c>
-      <c r="G10" s="52" t="inlineStr">
+      <c r="G10" s="55" t="inlineStr">
         <is>
           <t>Sports fanatic</t>
         </is>
       </c>
-      <c r="H10" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="I10" s="51" t="inlineStr">
+      <c r="H10" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="I10" s="54" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="J10" s="52" t="inlineStr">
+      <c r="J10" s="55" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="K10" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="L10" s="51" t="inlineStr">
+      <c r="K10" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="L10" s="54" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="M10" s="52" t="inlineStr">
+      <c r="M10" s="55" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="N10" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="O10" s="51" t="inlineStr">
+      <c r="N10" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="O10" s="54" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P10" s="52" t="inlineStr">
+      <c r="P10" s="55" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="Q10" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="R10" s="51" t="inlineStr">
+      <c r="Q10" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="R10" s="54" t="inlineStr">
         <is>
           <t>JPN</t>
         </is>
       </c>
-      <c r="S10" s="52" t="inlineStr"/>
-      <c r="T10" s="55" t="inlineStr">
+      <c r="S10" s="55" t="inlineStr"/>
+      <c r="T10" s="58" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U10" s="82" t="n"/>
+      <c r="U10" s="68" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="51" t="inlineStr">
+      <c r="A11" s="45" t="n"/>
+      <c r="B11" s="54" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C11" s="51" t="inlineStr">
+      <c r="C11" s="54" t="inlineStr">
         <is>
           <t>Iris</t>
         </is>
       </c>
-      <c r="D11" s="52" t="inlineStr">
+      <c r="D11" s="55" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E11" s="56" t="inlineStr">
+      <c r="E11" s="59" t="inlineStr">
         <is>
           <t>DEL</t>
         </is>
       </c>
-      <c r="F11" s="51" t="inlineStr">
+      <c r="F11" s="54" t="inlineStr">
         <is>
           <t>Art aficionado</t>
         </is>
       </c>
-      <c r="G11" s="52" t="inlineStr">
+      <c r="G11" s="55" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H11" s="56" t="inlineStr">
+      <c r="H11" s="59" t="inlineStr">
         <is>
           <t>DEL</t>
         </is>
       </c>
-      <c r="I11" s="51" t="inlineStr">
+      <c r="I11" s="54" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="J11" s="52" t="inlineStr">
+      <c r="J11" s="55" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K11" s="56" t="inlineStr">
+      <c r="K11" s="59" t="inlineStr">
         <is>
           <t>DEL</t>
         </is>
       </c>
-      <c r="L11" s="51" t="inlineStr">
+      <c r="L11" s="54" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M11" s="52" t="inlineStr">
+      <c r="M11" s="55" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N11" s="56" t="inlineStr">
+      <c r="N11" s="59" t="inlineStr">
         <is>
           <t>DEL</t>
         </is>
       </c>
-      <c r="O11" s="51" t="inlineStr">
+      <c r="O11" s="54" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="P11" s="52" t="inlineStr">
+      <c r="P11" s="55" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="Q11" s="56" t="inlineStr">
+      <c r="Q11" s="59" t="inlineStr">
         <is>
           <t>DEL</t>
         </is>
       </c>
-      <c r="R11" s="51" t="inlineStr">
+      <c r="R11" s="54" t="inlineStr">
         <is>
           <t>JPN</t>
         </is>
       </c>
-      <c r="S11" s="52" t="inlineStr"/>
-      <c r="T11" s="55" t="inlineStr">
+      <c r="S11" s="55" t="inlineStr"/>
+      <c r="T11" s="58" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U11" s="82" t="n"/>
+      <c r="U11" s="68" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="51" t="inlineStr">
+      <c r="A12" s="45" t="n"/>
+      <c r="B12" s="54" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C12" s="51" t="inlineStr">
+      <c r="C12" s="54" t="inlineStr">
         <is>
           <t>Iris</t>
         </is>
       </c>
-      <c r="D12" s="52" t="inlineStr">
+      <c r="D12" s="55" t="inlineStr">
         <is>
           <t>Jack</t>
         </is>
       </c>
-      <c r="E12" s="54" t="inlineStr">
+      <c r="E12" s="57" t="inlineStr">
         <is>
           <t>CHANGE</t>
         </is>
       </c>
-      <c r="F12" s="51" t="inlineStr">
+      <c r="F12" s="54" t="inlineStr">
         <is>
           <t>Travel enthusiast</t>
         </is>
       </c>
-      <c r="G12" s="52" t="inlineStr">
+      <c r="G12" s="55" t="inlineStr">
         <is>
           <t>Travel enthusiast</t>
         </is>
       </c>
-      <c r="H12" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="I12" s="51" t="inlineStr">
+      <c r="H12" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="I12" s="54" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="J12" s="52" t="inlineStr">
+      <c r="J12" s="55" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="K12" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="L12" s="51" t="inlineStr">
+      <c r="K12" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="L12" s="54" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="M12" s="52" t="inlineStr">
+      <c r="M12" s="55" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="N12" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="O12" s="51" t="inlineStr">
+      <c r="N12" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="O12" s="54" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="P12" s="52" t="inlineStr">
+      <c r="P12" s="55" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="Q12" s="53" t="inlineStr">
-        <is>
-          <t>SAME</t>
-        </is>
-      </c>
-      <c r="R12" s="51" t="inlineStr">
+      <c r="Q12" s="56" t="inlineStr">
+        <is>
+          <t>SAME</t>
+        </is>
+      </c>
+      <c r="R12" s="54" t="inlineStr">
         <is>
           <t>JPN</t>
         </is>
       </c>
-      <c r="S12" s="52" t="inlineStr"/>
-      <c r="T12" s="55" t="inlineStr">
+      <c r="S12" s="55" t="inlineStr"/>
+      <c r="T12" s="58" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U12" s="82" t="n"/>
+      <c r="U12" s="68" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="51" t="inlineStr">
+      <c r="A13" s="45" t="n"/>
+      <c r="B13" s="54" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C13" s="51" t="inlineStr">
+      <c r="C13" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D13" s="52" t="inlineStr">
+      <c r="D13" s="55" t="inlineStr">
         <is>
           <t>Rino</t>
         </is>
       </c>
-      <c r="E13" s="57" t="inlineStr">
+      <c r="E13" s="60" t="inlineStr">
         <is>
           <t>ADD</t>
         </is>
       </c>
-      <c r="F13" s="51" t="inlineStr">
+      <c r="F13" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G13" s="52" t="inlineStr">
+      <c r="G13" s="55" t="inlineStr">
         <is>
           <t>Singer</t>
         </is>
       </c>
-      <c r="H13" s="57" t="inlineStr">
+      <c r="H13" s="60" t="inlineStr">
         <is>
           <t>ADD</t>
         </is>
       </c>
-      <c r="I13" s="51" t="inlineStr">
+      <c r="I13" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J13" s="52" t="inlineStr">
+      <c r="J13" s="55" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="K13" s="57" t="inlineStr">
+      <c r="K13" s="60" t="inlineStr">
         <is>
           <t>ADD</t>
         </is>
       </c>
-      <c r="L13" s="51" t="inlineStr">
+      <c r="L13" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M13" s="52" t="inlineStr">
+      <c r="M13" s="55" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="N13" s="57" t="inlineStr">
+      <c r="N13" s="60" t="inlineStr">
         <is>
           <t>ADD</t>
         </is>
       </c>
-      <c r="O13" s="51" t="inlineStr">
+      <c r="O13" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P13" s="52" t="inlineStr">
+      <c r="P13" s="55" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="Q13" s="57" t="inlineStr">
+      <c r="Q13" s="60" t="inlineStr">
         <is>
           <t>ADD</t>
         </is>
       </c>
-      <c r="R13" s="51" t="inlineStr">
+      <c r="R13" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S13" s="52" t="inlineStr"/>
-      <c r="T13" s="55" t="inlineStr">
+      <c r="S13" s="55" t="inlineStr"/>
+      <c r="T13" s="58" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U13" s="82" t="n"/>
+      <c r="U13" s="68" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="51" t="inlineStr">
+      <c r="A14" s="45" t="n"/>
+      <c r="B14" s="54" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C14" s="51" t="inlineStr">
+      <c r="C14" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D14" s="52" t="inlineStr">
+      <c r="D14" s="55" t="inlineStr">
         <is>
           <t>Miami</t>
         </is>
       </c>
-      <c r="E14" s="57" t="inlineStr">
+      <c r="E14" s="60" t="inlineStr">
         <is>
           <t>ADD</t>
         </is>
       </c>
-      <c r="F14" s="51" t="inlineStr">
+      <c r="F14" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G14" s="52" t="inlineStr">
+      <c r="G14" s="55" t="inlineStr">
         <is>
           <t>Party</t>
         </is>
       </c>
-      <c r="H14" s="57" t="inlineStr">
+      <c r="H14" s="60" t="inlineStr">
         <is>
           <t>ADD</t>
         </is>
       </c>
-      <c r="I14" s="51" t="inlineStr">
+      <c r="I14" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J14" s="52" t="inlineStr">
+      <c r="J14" s="55" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K14" s="57" t="inlineStr">
+      <c r="K14" s="60" t="inlineStr">
         <is>
           <t>ADD</t>
         </is>
       </c>
-      <c r="L14" s="51" t="inlineStr">
+      <c r="L14" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M14" s="52" t="inlineStr">
+      <c r="M14" s="55" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N14" s="57" t="inlineStr">
+      <c r="N14" s="60" t="inlineStr">
         <is>
           <t>ADD</t>
         </is>
       </c>
-      <c r="O14" s="51" t="inlineStr">
+      <c r="O14" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="P14" s="52" t="inlineStr">
+      <c r="P14" s="55" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="Q14" s="57" t="inlineStr">
+      <c r="Q14" s="60" t="inlineStr">
         <is>
           <t>ADD</t>
         </is>
       </c>
-      <c r="R14" s="51" t="inlineStr">
+      <c r="R14" s="54" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="S14" s="52" t="inlineStr"/>
-      <c r="T14" s="55" t="inlineStr">
+      <c r="S14" s="55" t="inlineStr"/>
+      <c r="T14" s="58" t="inlineStr">
         <is>
           <t>NOJUDGEMENT</t>
         </is>
       </c>
-      <c r="U14" s="82" t="n"/>
+      <c r="U14" s="68" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="60" t="n"/>
-      <c r="B15" s="80" t="n"/>
-      <c r="C15" s="80" t="n"/>
-      <c r="D15" s="80" t="n"/>
-      <c r="E15" s="80" t="n"/>
-      <c r="F15" s="80" t="n"/>
-      <c r="G15" s="80" t="n"/>
-      <c r="H15" s="80" t="n"/>
-      <c r="I15" s="80" t="n"/>
-      <c r="J15" s="80" t="n"/>
-      <c r="K15" s="80" t="n"/>
-      <c r="L15" s="80" t="n"/>
-      <c r="M15" s="80" t="n"/>
-      <c r="N15" s="80" t="n"/>
-      <c r="O15" s="80" t="n"/>
-      <c r="P15" s="80" t="n"/>
-      <c r="Q15" s="80" t="n"/>
-      <c r="R15" s="80" t="n"/>
-      <c r="S15" s="80" t="n"/>
-      <c r="T15" s="80" t="n"/>
-      <c r="U15" s="62" t="n"/>
+      <c r="A15" s="61" t="n"/>
+      <c r="B15" s="66" t="n"/>
+      <c r="C15" s="66" t="n"/>
+      <c r="D15" s="66" t="n"/>
+      <c r="E15" s="66" t="n"/>
+      <c r="F15" s="66" t="n"/>
+      <c r="G15" s="66" t="n"/>
+      <c r="H15" s="66" t="n"/>
+      <c r="I15" s="66" t="n"/>
+      <c r="J15" s="66" t="n"/>
+      <c r="K15" s="66" t="n"/>
+      <c r="L15" s="66" t="n"/>
+      <c r="M15" s="66" t="n"/>
+      <c r="N15" s="66" t="n"/>
+      <c r="O15" s="66" t="n"/>
+      <c r="P15" s="66" t="n"/>
+      <c r="Q15" s="66" t="n"/>
+      <c r="R15" s="66" t="n"/>
+      <c r="S15" s="66" t="n"/>
+      <c r="T15" s="66" t="n"/>
+      <c r="U15" s="63" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
